--- a/medicine/Mort/Cimetière_de_Saint-Rambert/Cimetière_de_Saint-Rambert.xlsx
+++ b/medicine/Mort/Cimetière_de_Saint-Rambert/Cimetière_de_Saint-Rambert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-Rambert</t>
+          <t>Cimetière_de_Saint-Rambert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Saint-Rambert est le cimetière de l'ancienne commune de Saint-Rambert-l'Île-Barbe et qui depuis 1963 est situé dans le 9e arrondissement de Lyon en France[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Saint-Rambert est le cimetière de l'ancienne commune de Saint-Rambert-l'Île-Barbe et qui depuis 1963 est situé dans le 9e arrondissement de Lyon en France.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-Rambert</t>
+          <t>Cimetière_de_Saint-Rambert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs personnalités sont enterrées dans ce cimetière dont certains membres de la famille Couty (Jean-Baptiste, Ernest Fabrègue, Malibran)[2].
-Le cimetière comprend également le monument aux morts[3] de l'ancienne commune de Saint-Rambert-l'Île-Barbe[2]. Trois noms inscrits sur ce dernier correspondent d'ailleurs à des noms de rues lyonnaises (Pierre Baizet, Marcel Cordier et Sylvain Simondan)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs personnalités sont enterrées dans ce cimetière dont certains membres de la famille Couty (Jean-Baptiste, Ernest Fabrègue, Malibran).
+Le cimetière comprend également le monument aux morts de l'ancienne commune de Saint-Rambert-l'Île-Barbe. Trois noms inscrits sur ce dernier correspondent d'ailleurs à des noms de rues lyonnaises (Pierre Baizet, Marcel Cordier et Sylvain Simondan).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-Rambert</t>
+          <t>Cimetière_de_Saint-Rambert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Victor Cordier (1884-1944), médecin français ; la rue des Docteurs-Cordier est nommée d'après lui et son père Jacques-Sylvain Cordier (1846-1910)[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Victor Cordier (1884-1944), médecin français ; la rue des Docteurs-Cordier est nommée d'après lui et son père Jacques-Sylvain Cordier (1846-1910)
 Jean Couty (1907-1991), peintre
 Jean Guerre-Dumollard (1761-1845), homme de loi et historien
 Professeur Paul Sédallian (1894-1960), bactériologiste</t>
